--- a/issue_negatives.xlsx
+++ b/issue_negatives.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="2640" windowWidth="28720" windowHeight="16880" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28720" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
